--- a/medicine/Soins infirmiers et profession infirmière/La_Revue_de_l'infirmière/La_Revue_de_l'infirmière.xlsx
+++ b/medicine/Soins infirmiers et profession infirmière/La_Revue_de_l'infirmière/La_Revue_de_l'infirmière.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>La_Revue_de_l%27infirmi%C3%A8re</t>
+          <t>La_Revue_de_l'infirmière</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Revue de l'infirmière est un magazine mensuel français appartenant au groupe  Elsevier. Il a été fondé en 1951 par la Croix-Rouge française. C'est un magazine professionnel destiné aux infirmiers et aux infirmières.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>La_Revue_de_l%27infirmi%C3%A8re</t>
+          <t>La_Revue_de_l'infirmière</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sur le marché de la presse professionnelles à destination des infirmières, la Revue Soins appartient également au groupe Elsevier et L'Infirmière Magazine appartient au groupe Wolters Kluwer.
  Portail de la presse écrite   Portail des soins infirmiers   Portail de Paris                   </t>
